--- a/biology/Médecine/Thierry_Brigaud/Thierry_Brigaud.xlsx
+++ b/biology/Médecine/Thierry_Brigaud/Thierry_Brigaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thierry Brigaud est un médecin (spécialisé en médecine du travail) de nationalité française né le 12 juin 1963 à Charlieu. Président de Médecins du monde entre 2012 et 2015, il est principalement connu pour son rôle dans l'humanitaire. 
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le docteur Thierry Brigaud est médecin du travail au C.H.R.U. de Montpellier depuis juin 2011. En 1988 il s'engage avec Médecins du Monde à Lyon où il a fait ses études de médecine[1], puis en Colombie, au Guatemala, au Mexique et à Cuba[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le docteur Thierry Brigaud est médecin du travail au C.H.R.U. de Montpellier depuis juin 2011. En 1988 il s'engage avec Médecins du Monde à Lyon où il a fait ses études de médecine, puis en Colombie, au Guatemala, au Mexique et à Cuba. 
 Il entre au conseil d'administration de Médecins du Monde en 2004 et devient vice-président de 2008 à 2010.
-Le 2 juin 2012, il est élu président de l'association Médecins du Monde[2],[3].
-Auparavant, il a été successivement Directeur d'un centre médical pour enfants des rues à Bogota pour Médecins du monde[4], Coordinateur médical pour Handicap International en Bosnie-Herzégovine et Coordinateur de programmes pour Médecins du monde au Mexique[5].
+Le 2 juin 2012, il est élu président de l'association Médecins du Monde,.
+Auparavant, il a été successivement Directeur d'un centre médical pour enfants des rues à Bogota pour Médecins du monde, Coordinateur médical pour Handicap International en Bosnie-Herzégovine et Coordinateur de programmes pour Médecins du monde au Mexique.
 </t>
         </is>
       </c>
